--- a/biology/Zoologie/Elapsoidea_loveridgei/Elapsoidea_loveridgei.xlsx
+++ b/biology/Zoologie/Elapsoidea_loveridgei/Elapsoidea_loveridgei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elapsoidea loveridgei est une espèce de serpents de la famille des Elapidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elapsoidea loveridgei est une espèce de serpents de la famille des Elapidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Congo-Kinshasa, en Tanzanie, au Rwanda, au Burundi, en Ouganda, au Kenya, en Somalie, en Éthiopie et au Soudan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Congo-Kinshasa, en Tanzanie, au Rwanda, au Burundi, en Ouganda, au Kenya, en Somalie, en Éthiopie et au Soudan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Elapsoidea loveridgei[2], une femelle, mesure 560 mm. Il s'agit d'un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Elapsoidea loveridgei, une femelle, mesure 560 mm. Il s'agit d'un serpent venimeux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Elapsoidea loveridgei colleti Laurent, 1956
 Elapsoidea loveridgei loveridgei Parker, 1949
 Elapsoidea loveridgei multicincta Laurent, 1956</t>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Arthur Loveridge (1891-1980), herpétologiste américain[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Arthur Loveridge (1891-1980), herpétologiste américain.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Laurent, 1956 : Contribution à l'herpetologie de la région des Grandes Lacs de l'Afrique centrale. Annales du Musée royal de Congo belge (Sciences Zoologiques), vol. 48, p. 1-390.
 Parker, 1949 : The snakes of Somaliland and the Sokotra islands. Zoologische Verhandelingen, vol. 6, p. 1-115 (texte intégral).</t>
